--- a/GuruFocus_attributes.xlsx
+++ b/GuruFocus_attributes.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Môj disk\_Investovanie\gf_parser\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\iShares_MIDCAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508CA460-7938-4B4C-B165-8EFE601CF027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2664" windowWidth="27636" windowHeight="16944"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Years of Profitability over Past 10-Year</t>
   </si>
@@ -64,27 +63,9 @@
     <t>PE Ratio</t>
   </si>
   <si>
-    <t>3-Year Average Share Buyback Ratio</t>
-  </si>
-  <si>
-    <t>3-Year Dividend Growth Rate</t>
-  </si>
-  <si>
-    <t>5-Year Yield-on-Cost %</t>
-  </si>
-  <si>
     <t>Cash Ratio</t>
   </si>
   <si>
-    <t>Days Inventory</t>
-  </si>
-  <si>
-    <t>Days Payable</t>
-  </si>
-  <si>
-    <t>Days Sales Outstanding</t>
-  </si>
-  <si>
     <t>Debt-to-EBITDA</t>
   </si>
   <si>
@@ -100,27 +81,6 @@
     <t>Equity-to-Asset</t>
   </si>
   <si>
-    <t>EV-to-EBIT</t>
-  </si>
-  <si>
-    <t>EV-to-EBITDA</t>
-  </si>
-  <si>
-    <t>EV-to-FCF</t>
-  </si>
-  <si>
-    <t>EV-to-Forward-EBIT</t>
-  </si>
-  <si>
-    <t>EV-to-Forward-EBITDA</t>
-  </si>
-  <si>
-    <t>EV-to-Forward-Revenue</t>
-  </si>
-  <si>
-    <t>EV-to-Revenue</t>
-  </si>
-  <si>
     <t>Forward Dividend Yield %</t>
   </si>
   <si>
@@ -151,36 +111,6 @@
     <t>PEG Ratio</t>
   </si>
   <si>
-    <t>Price-to-DCF (Earnings Based)</t>
-  </si>
-  <si>
-    <t>Price-to-DCF (FCF Based)</t>
-  </si>
-  <si>
-    <t>Price-to-Free-Cash-Flow</t>
-  </si>
-  <si>
-    <t>Price-to-Graham-Number</t>
-  </si>
-  <si>
-    <t>Price-to-Median-PS-Value</t>
-  </si>
-  <si>
-    <t>Price-to-Operating-Cash-Flow</t>
-  </si>
-  <si>
-    <t>Price-to-Owner-Earnings</t>
-  </si>
-  <si>
-    <t>Price-to-Peter-Lynch-Fair-Value</t>
-  </si>
-  <si>
-    <t>Price-to-Projected-FCF</t>
-  </si>
-  <si>
-    <t>Price-to-Tangible-Book</t>
-  </si>
-  <si>
     <t>PS Ratio</t>
   </si>
   <si>
@@ -190,9 +120,6 @@
     <t>ROA %</t>
   </si>
   <si>
-    <t>ROC (Joel Greenblatt) %</t>
-  </si>
-  <si>
     <t>ROCE %</t>
   </si>
   <si>
@@ -208,17 +135,29 @@
     <t>Shiller PE Ratio</t>
   </si>
   <si>
-    <t>WACC vs ROIC</t>
-  </si>
-  <si>
     <t>GF Value</t>
+  </si>
+  <si>
+    <t>12-1 Month Momentum %</t>
+  </si>
+  <si>
+    <t>6-1 Month Momentum %</t>
+  </si>
+  <si>
+    <t>Financial Strength</t>
+  </si>
+  <si>
+    <t>Profitability Rank</t>
+  </si>
+  <si>
+    <t>GF Value Rank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,6 +170,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -268,9 +212,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -586,206 +537,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AN12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.296875" customWidth="1"/>
-    <col min="7" max="7" width="25.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.69921875" customWidth="1"/>
-    <col min="14" max="14" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="30.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="21.5" customWidth="1"/>
+    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="18.75" customWidth="1"/>
+    <col min="17" max="17" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="30.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
